--- a/SQL_Management/sql_files/3.8/Iteration4/EDW/Brutis v NetTracer Data Definitions.xlsx
+++ b/SQL_Management/sql_files/3.8/Iteration4/EDW/Brutis v NetTracer Data Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="0" windowWidth="10110" windowHeight="7485" tabRatio="757" firstSheet="19" activeTab="21"/>
+    <workbookView xWindow="10380" yWindow="0" windowWidth="10110" windowHeight="7485" tabRatio="757" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Assisted Device" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="825">
   <si>
     <t>Damage Bag</t>
   </si>
@@ -2467,9 +2467,6 @@
   </si>
   <si>
     <t>description text</t>
-  </si>
-  <si>
-    <t>assistDeviceCheck varchar(5)</t>
   </si>
   <si>
     <t>varchar(1) generated (empty)</t>
@@ -4578,7 +4575,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>103</v>
@@ -4610,7 +4607,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>104</v>
@@ -4640,7 +4637,7 @@
         <v>102</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>104</v>
@@ -4876,7 +4873,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -4905,7 +4902,7 @@
         <v>186</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>176</v>
@@ -4934,7 +4931,7 @@
         <v>102</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>176</v>
@@ -5091,8 +5088,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5133,7 +5130,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -5165,7 +5162,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
@@ -5192,7 +5189,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>9</v>
@@ -5217,7 +5214,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
@@ -5240,7 +5237,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -5261,7 +5258,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
@@ -5284,7 +5281,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>6</v>
@@ -5310,10 +5307,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>37</v>
@@ -5339,7 +5336,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>6</v>
@@ -5368,7 +5365,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>22</v>
@@ -5390,10 +5387,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>37</v>
@@ -5418,7 +5415,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>6</v>
@@ -5441,7 +5438,7 @@
         <v>788</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>22</v>
@@ -5464,7 +5461,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -5479,10 +5476,10 @@
         <v>31</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>37</v>
@@ -5505,7 +5502,7 @@
         <v>102</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>6</v>
@@ -5532,7 +5529,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>6</v>
@@ -5557,11 +5554,11 @@
       <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>798</v>
+      <c r="B20" s="44" t="s">
+        <v>783</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>37</v>
@@ -5586,7 +5583,7 @@
         <v>39</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>37</v>
@@ -5614,7 +5611,7 @@
         <v>39</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>22</v>
@@ -5636,10 +5633,10 @@
         <v>40</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>42</v>
@@ -5664,10 +5661,10 @@
         <v>43</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>6</v>
@@ -5687,10 +5684,10 @@
         <v>44</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>45</v>
@@ -5712,10 +5709,10 @@
         <v>46</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>42</v>
@@ -5735,10 +5732,10 @@
         <v>47</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>42</v>
@@ -5897,7 +5894,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -5926,7 +5923,7 @@
         <v>780</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>176</v>
@@ -5952,7 +5949,7 @@
         <v>187</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>176</v>
@@ -6150,7 +6147,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -6179,7 +6176,7 @@
         <v>772</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>190</v>
@@ -6202,7 +6199,7 @@
         <v>189</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>176</v>
@@ -6404,7 +6401,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -6433,7 +6430,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>176</v>
@@ -6462,7 +6459,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>176</v>
@@ -6659,7 +6656,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -6689,7 +6686,7 @@
         <v>780</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>176</v>
@@ -6717,7 +6714,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>190</v>
@@ -6922,7 +6919,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -6948,7 +6945,7 @@
         <v>782</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>176</v>
@@ -6971,7 +6968,7 @@
         <v>781</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>176</v>
@@ -7167,7 +7164,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -7182,10 +7179,10 @@
         <v>573</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J3" s="20" t="s">
         <v>774</v>
@@ -7199,7 +7196,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>176</v>
@@ -7223,10 +7220,10 @@
         <v>199</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>37</v>
@@ -7254,7 +7251,7 @@
         <v>206</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>176</v>
@@ -7283,7 +7280,7 @@
         <v>207</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>176</v>
@@ -7308,7 +7305,7 @@
         <v>208</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>176</v>
@@ -7337,7 +7334,7 @@
         <v>209</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>176</v>
@@ -7366,7 +7363,7 @@
         <v>210</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>176</v>
@@ -7391,7 +7388,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>176</v>
@@ -7416,7 +7413,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>37</v>
@@ -7436,10 +7433,10 @@
         <v>205</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>37</v>
@@ -7602,7 +7599,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -7629,7 +7626,7 @@
         <v>215</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>176</v>
@@ -7658,7 +7655,7 @@
         <v>102</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>176</v>
@@ -7685,7 +7682,7 @@
         <v>783</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>37</v>
@@ -7710,7 +7707,7 @@
         <v>784</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>37</v>
@@ -7913,7 +7910,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -7942,7 +7939,7 @@
         <v>217</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>176</v>
@@ -7971,7 +7968,7 @@
         <v>218</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>176</v>
@@ -8166,7 +8163,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>3</v>
@@ -8198,7 +8195,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>50</v>
@@ -8225,7 +8222,7 @@
         <v>787</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>628</v>
@@ -8255,7 +8252,7 @@
         <v>772</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>50</v>
@@ -8282,7 +8279,7 @@
         <v>788</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>50</v>
@@ -8309,7 +8306,7 @@
         <v>120</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>50</v>
@@ -8336,7 +8333,7 @@
         <v>119</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>50</v>
@@ -8363,7 +8360,7 @@
         <v>789</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>50</v>
@@ -8390,7 +8387,7 @@
         <v>790</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>50</v>
@@ -8420,7 +8417,7 @@
         <v>772</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>50</v>
@@ -8447,7 +8444,7 @@
         <v>121</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>50</v>
@@ -8474,7 +8471,7 @@
         <v>122</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>50</v>
@@ -8501,7 +8498,7 @@
         <v>791</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>50</v>
@@ -8530,7 +8527,7 @@
         <v>792</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>50</v>
@@ -8557,7 +8554,7 @@
         <v>123</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="4" t="s">
@@ -8579,7 +8576,7 @@
         <v>793</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>37</v>
@@ -8753,7 +8750,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -8782,7 +8779,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>176</v>
@@ -8804,10 +8801,10 @@
         <v>220</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>176</v>
@@ -8831,10 +8828,10 @@
         <v>221</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>176</v>
@@ -8857,7 +8854,7 @@
         <v>232</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>176</v>
@@ -8883,10 +8880,10 @@
         <v>223</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>176</v>
@@ -8911,7 +8908,7 @@
         <v>102</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>176</v>
@@ -8937,10 +8934,10 @@
         <v>225</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>37</v>
@@ -8951,7 +8948,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="37" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I10" s="43" t="s">
         <v>775</v>
@@ -8965,7 +8962,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>176</v>
@@ -8990,7 +8987,7 @@
         <v>233</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>176</v>
@@ -9016,10 +9013,10 @@
         <v>227</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>176</v>
@@ -9044,7 +9041,7 @@
         <v>234</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>176</v>
@@ -9069,7 +9066,7 @@
         <v>235</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>176</v>
@@ -9098,7 +9095,7 @@
         <v>792</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>176</v>
@@ -9125,7 +9122,7 @@
         <v>791</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>176</v>
@@ -9149,10 +9146,10 @@
         <v>231</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>37</v>
@@ -9177,7 +9174,7 @@
         <v>71</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>37</v>
@@ -9202,7 +9199,7 @@
         <v>73</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>37</v>
@@ -9227,7 +9224,7 @@
         <v>75</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>37</v>
@@ -9252,7 +9249,7 @@
         <v>30</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>37</v>
@@ -9413,7 +9410,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -9442,7 +9439,7 @@
         <v>238</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>176</v>
@@ -9471,7 +9468,7 @@
         <v>239</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="24" t="s">
@@ -9621,7 +9618,7 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -9666,7 +9663,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -9695,7 +9692,7 @@
         <v>786</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>176</v>
@@ -9724,7 +9721,7 @@
         <v>786</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>241</v>
@@ -9876,8 +9873,8 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -9922,7 +9919,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -9951,7 +9948,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>176</v>
@@ -9978,7 +9975,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>176</v>
@@ -10003,7 +10000,7 @@
         <v>795</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>176</v>
@@ -10030,7 +10027,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>176</v>
@@ -10059,7 +10056,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>176</v>
@@ -10088,7 +10085,7 @@
         <v>796</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>176</v>
@@ -10117,7 +10114,7 @@
         <v>783</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>176</v>
@@ -10144,7 +10141,7 @@
         <v>791</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>176</v>
@@ -10171,7 +10168,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>176</v>
@@ -10196,7 +10193,7 @@
         <v>788</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>176</v>
@@ -10223,7 +10220,7 @@
         <v>102</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>176</v>
@@ -10250,7 +10247,7 @@
         <v>797</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>176</v>
@@ -10271,11 +10268,11 @@
       <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>798</v>
+      <c r="B16" s="44" t="s">
+        <v>783</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>176</v>
@@ -10302,7 +10299,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>176</v>
@@ -10324,7 +10321,7 @@
         <v>783</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>37</v>
@@ -10349,7 +10346,7 @@
         <v>135</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>176</v>
@@ -10375,7 +10372,7 @@
         <v>136</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>176</v>
@@ -10401,7 +10398,7 @@
         <v>137</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>176</v>
@@ -10427,7 +10424,7 @@
         <v>30</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>176</v>
@@ -10447,7 +10444,7 @@
         <v>783</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>37</v>
@@ -10625,7 +10622,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -10657,7 +10654,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>50</v>
@@ -10685,7 +10682,7 @@
         <v>52</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>50</v>
@@ -10715,7 +10712,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
@@ -10737,7 +10734,7 @@
         <v>788</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>50</v>
@@ -10764,7 +10761,7 @@
         <v>791</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>50</v>
@@ -10793,7 +10790,7 @@
         <v>58</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>22</v>
@@ -10815,7 +10812,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>50</v>
@@ -10841,10 +10838,10 @@
         <v>61</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>50</v>
@@ -10876,7 +10873,7 @@
         <v>63</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>50</v>
@@ -10898,7 +10895,7 @@
         <v>662</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>50</v>
@@ -10925,7 +10922,7 @@
         <v>66</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>50</v>
@@ -10954,7 +10951,7 @@
         <v>792</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>50</v>
@@ -10978,10 +10975,10 @@
         <v>68</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>50</v>
@@ -11005,10 +11002,10 @@
         <v>69</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>37</v>
@@ -11033,7 +11030,7 @@
         <v>71</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>50</v>
@@ -11058,7 +11055,7 @@
         <v>73</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>50</v>
@@ -11083,7 +11080,7 @@
         <v>75</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>50</v>
@@ -11109,10 +11106,10 @@
         <v>76</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>37</v>
@@ -11140,7 +11137,7 @@
         <v>78</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>50</v>
@@ -11166,7 +11163,7 @@
         <v>80</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>50</v>
@@ -11192,7 +11189,7 @@
         <v>82</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>50</v>
@@ -11218,7 +11215,7 @@
         <v>788</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>50</v>
@@ -11245,7 +11242,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="13"/>
@@ -11260,10 +11257,10 @@
         <v>85</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>37</v>
@@ -11285,10 +11282,10 @@
         <v>86</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>37</v>
@@ -11310,10 +11307,10 @@
         <v>87</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>37</v>
@@ -11335,10 +11332,10 @@
         <v>88</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>37</v>
@@ -11363,10 +11360,10 @@
         <v>89</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>50</v>
@@ -11392,10 +11389,10 @@
         <v>90</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>50</v>
@@ -11419,10 +11416,10 @@
         <v>91</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>50</v>
@@ -11448,10 +11445,10 @@
         <v>92</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>37</v>
@@ -11474,10 +11471,10 @@
         <v>93</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>37</v>
@@ -11500,10 +11497,10 @@
         <v>94</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>37</v>
@@ -11523,10 +11520,10 @@
         <v>95</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>37</v>
@@ -11549,7 +11546,7 @@
         <v>97</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>50</v>
@@ -11717,7 +11714,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -11744,7 +11741,7 @@
         <v>140</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>190</v>
@@ -11768,7 +11765,7 @@
         <v>776</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>242</v>
@@ -11956,7 +11953,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
@@ -11985,7 +11982,7 @@
         <v>146</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>176</v>
@@ -12010,7 +12007,7 @@
         <v>149</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>190</v>
@@ -12035,7 +12032,7 @@
         <v>150</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>190</v>
@@ -12060,7 +12057,7 @@
         <v>151</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>176</v>
@@ -12086,10 +12083,10 @@
         <v>143</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>176</v>
@@ -12116,7 +12113,7 @@
         <v>152</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>176</v>
@@ -12143,7 +12140,7 @@
         <v>153</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>176</v>
@@ -12314,7 +12311,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -12343,7 +12340,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>176</v>
@@ -12367,10 +12364,10 @@
         <v>154</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>176</v>
@@ -12397,7 +12394,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>176</v>
@@ -12422,7 +12419,7 @@
         <v>146</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>176</v>
@@ -12451,7 +12448,7 @@
         <v>788</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>176</v>
@@ -12476,7 +12473,7 @@
         <v>162</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>176</v>
@@ -12501,7 +12498,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="25"/>
@@ -12520,7 +12517,7 @@
         <v>163</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>190</v>
@@ -12545,7 +12542,7 @@
         <v>164</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>190</v>
@@ -12567,10 +12564,10 @@
         <v>160</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>244</v>
@@ -12738,7 +12735,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -12770,7 +12767,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>176</v>
@@ -12800,7 +12797,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>176</v>
@@ -12826,7 +12823,7 @@
         <v>174</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>176</v>
@@ -12856,7 +12853,7 @@
         <v>791</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>176</v>
@@ -12884,7 +12881,7 @@
         <v>39</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>176</v>
@@ -12910,7 +12907,7 @@
         <v>792</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>176</v>
@@ -12935,10 +12932,10 @@
         <v>170</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>37</v>
@@ -12966,7 +12963,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="25"/>
@@ -12988,7 +12985,7 @@
         <v>792</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>37</v>
@@ -13016,7 +13013,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>37</v>
@@ -13041,10 +13038,10 @@
         <v>172</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>37</v>
@@ -13066,10 +13063,10 @@
         <v>173</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>37</v>
@@ -13234,7 +13231,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -13266,7 +13263,7 @@
         <v>183</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>176</v>
@@ -13298,7 +13295,7 @@
         <v>184</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>176</v>
@@ -13324,10 +13321,10 @@
         <v>177</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>37</v>
@@ -13349,10 +13346,10 @@
         <v>178</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>37</v>
@@ -13374,10 +13371,10 @@
         <v>179</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>37</v>
@@ -13402,7 +13399,7 @@
         <v>778</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>37</v>
@@ -13427,7 +13424,7 @@
         <v>777</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>37</v>
